--- a/Zomato_Cart-TestCases.xlsx
+++ b/Zomato_Cart-TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Lucidity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Lucidity_Sdet_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>Test Negative Cart Value</t>
+  </si>
+  <si>
+    <t>Test Negative Cart Value Percentage</t>
+  </si>
+  <si>
+    <t>Offer ID 2 with type FLAT X%, discount -10, applicable for p1.</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1124,10 +1130,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>38</v>
@@ -1261,7 +1267,7 @@
     </row>
     <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>38</v>
@@ -1281,7 +1287,7 @@
     </row>
     <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>38</v>
@@ -1301,7 +1307,7 @@
     </row>
     <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>38</v>
@@ -1321,7 +1327,7 @@
     </row>
     <row r="11" spans="1:6" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>38</v>
@@ -1339,9 +1345,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>38</v>
@@ -1356,6 +1362,26 @@
         <v>75</v>
       </c>
       <c r="F12" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1374,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,6 +1492,14 @@
         <v>77</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
